--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F65EBD-7E85-44BC-83C1-F3618C1B39AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F248DE-3F33-464F-822E-82DD8B4440A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1770" windowWidth="21600" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P1S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STAR_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,19 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHINA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pumpkin,1
-Strawberrie,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_FoodSpriteIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,19 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JAPAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pumpkin,3
-Strawberrie,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STAR_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,22 +123,6 @@
   </si>
   <si>
     <t>KOREA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strawberrie,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pumpkin,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2S3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,11 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pumpkin,2
-Strawberrie,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Prefabs/TestPrefabs/Food1_Item.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +148,131 @@
   </si>
   <si>
     <t>Assets/Prefabs/TestPrefabs/BreadBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈비찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치볶음밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOODLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3
+16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,2
+Meat,1
+Mushroom,1
+Sauce,1
+Oil,1
+Onion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Sugar,1
+Honey,1
+Ginger,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water,3
+Kimchi,2
+Meat,2
+Greenonion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,3
+Sauce,2
+Radish,1
+Carrot,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi,1
+Rice,3
+Oil,1
+Egg,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오니기리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도라야키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스키야키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAPAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish,2
+Rice,2
+Vinegar,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice,3
+Salt,1
+Seaweed,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Egg,2
+Milk,1
+Redbean,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,2
+Sauce,2
+Fish,1
+Water,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water,3
+Meat,2
+Sauce,1
+Tofu,1
+Mushroom,1
+Onion,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -626,19 +700,19 @@
     </row>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -658,34 +732,34 @@
       <c r="K2">
         <v>0.05</v>
       </c>
-      <c r="L2">
-        <v>0</v>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -705,34 +779,34 @@
       <c r="K3">
         <v>0.05</v>
       </c>
-      <c r="L3">
-        <v>0</v>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -756,30 +830,30 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -803,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -817,16 +891,16 @@
         <v>32</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -846,19 +920,345 @@
       <c r="K6">
         <v>0.05</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0.05</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0.05</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>35</v>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
+    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>0.05</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F248DE-3F33-464F-822E-82DD8B4440A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C13BB4-4A05-4AB7-A78F-0F80FDC641F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="870" yWindow="600" windowWidth="15075" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="141">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,530 @@
 Tofu,1
 Mushroom,1
 Onion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHINA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이징덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차오판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우육면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,2
+Oil,1
+Spice,2
+Vinegar,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice,2
+Oil,1
+Egg,2
+Greenonion,1
+Salt,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,1
+Water,3
+Spice,2
+Tofu,1
+Mushroom,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,1
+Noodle,2
+Water,2
+Spice,1
+Greenonion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Water,1
+Milk,1
+Sugar,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타르타르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리올레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라따뚜이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크루아상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Meat,3
+Oil,1
+Spice,2
+Egg,1
+Onion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice,2
+Sugar,1
+Milk,1
+Butter,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato,2
+Pumpkin,1
+Cheese,1
+Spice,1
+Water,2
+Eggplant,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로슈토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리볼리타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카르보나라 파스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>Meat,3
+Salt,2
+Spice,1
+Wine,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice,3
+Onion,1
+Cheese,1
+Mushroom,1
+Milk,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water,2
+Tomato,2
+Salary,1
+Carrot,1
+Onion,1
+Spice,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,3
+Egg,2
+Meat,1
+Cheese,1
+Garlic,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,3
+Water,1
+Sugar,1
+Tomato,1
+Cheese,2
+Olive,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바비큐 립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠발라야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀크셰이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨 누들 수프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,3
+Salt,1
+Sugar,1
+Spice,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice,2
+Meat,1
+Fish,1
+Tomato,2
+Onion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milk,2
+Sugar,2
+Vanilla,1
+Water,1
+Fruit,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,2
+Meat,2
+Onion,1
+Salt,1
+Salary,1
+Mushroom,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Egg,1
+Milk,1
+Meat,2
+Tomato,1
+Lettuce,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸팟퐁커리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카오팟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똠양꿍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로띠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>Fish,2
+Fruit,1
+Spice,2
+Egg,1
+Onion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice,2
+Fish,1
+Egg,1
+Sauce,1
+Mushroom,1
+Beansprout,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water,2
+Fish,2
+Tomato,1
+Fruit,1
+Coriander,1
+Sauce,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,3
+Meat,1
+Beansprout,1
+Onion,1
+Sauce,1
+Coriander,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Butter,1
+Egg,1
+Sugar,1
+Fruit,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>른당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나시고렝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소또아얌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미고렝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDONESIA</t>
+  </si>
+  <si>
+    <t>Rice,3
+Egg,1
+Beansprout,1
+Fish,1
+Sauce,2
+Oil,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water,3
+Meat,2
+Garlic,1
+Spice,1
+Beansprout,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,3
+Onion,1
+Fish,2
+Tomato,1
+Sauce,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈바인학센</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀히라이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알주페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈페츨레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레첼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바훔쿠헨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부어스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>Meat,3
+Greenonion,1
+Onion,1
+Garlic,2
+Spice,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice,2
+Milk,1
+Sugar,1
+Vanilla,1
+Fruit,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish,2
+Onion,1
+Spice,2
+Carrot,1
+Wine,1
+Salt,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,2
+Meat,1
+Cheese,2
+Mushroom,1
+Garlic,1
+Cream,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Sugar,1
+Salt,1
+Water,1
+Butter,1
+Nuts,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,3
+Butter,1
+Milk,1
+Egg,1
+Vanilla,1
+Sugar,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,3
+Onion,2
+Spice,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토레즈노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파에야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스파초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피데우아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추로스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감바스 알 하이요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>Meat,3
+Salt,1
+Spice,2
+Oil,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice,3
+Fish,2
+Tomato,1
+Onion,1
+Spice,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato,3
+Onion,1
+Garlic,1
+Cucumber,1
+Salt,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,2
+Meat,2
+Tomato,1
+Onion,1
+Spice,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Sugar,2
+Butter,1
+Egg,1
+Water,1
+Oil,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish,2
+Garlic,2
+Oil,2
+Spice,1
+Salt,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,3
+Fruit,1
+Onion,1
+Garlic,1
+Coriander,1
+Oil,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Water,1
+Sugar,1
+Butter,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,13 +1166,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="15" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1168,75 +1693,1974 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0.05</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>0.05</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0.05</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>0.05</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>0.05</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>0.05</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>0.05</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>0.05</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>0.05</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>0.05</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>0.05</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>0.05</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>0.05</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>0.05</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>0.05</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>0.05</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>0.05</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>0.05</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>0.05</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>0.05</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>0.05</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>0.05</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>0.05</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>0.05</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0.05</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>0.05</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>0.2</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>0.05</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>0.05</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>0.05</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>0.2</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>0.05</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>0.05</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>0.05</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>0.2</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>0.05</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>0.05</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>0.05</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>0.05</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>0.2</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>0.05</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>0.2</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>0.05</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C13BB4-4A05-4AB7-A78F-0F80FDC641F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21875BB1-04C3-477F-8DDF-DCC23421486B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="600" windowWidth="15075" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="1755" yWindow="1665" windowWidth="15075" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="142">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,6 +797,10 @@
 Water,1
 Sugar,1
 Butter,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAR_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I18" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1231,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1278,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1325,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1372,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1419,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1466,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1513,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1654,7 +1658,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1701,7 +1705,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1795,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1936,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -2124,7 +2128,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -2171,7 +2175,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -2265,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2312,7 +2316,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -2453,7 +2457,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2500,7 +2504,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -2547,7 +2551,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -2594,7 +2598,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -2641,7 +2645,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2688,7 +2692,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -2735,7 +2739,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -2782,7 +2786,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2829,7 +2833,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -2876,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2923,7 +2927,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -3017,7 +3021,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -3064,7 +3068,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -3111,7 +3115,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -3158,7 +3162,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
@@ -3205,7 +3209,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -3252,7 +3256,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
@@ -3393,7 +3397,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -3440,7 +3444,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -3487,7 +3491,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
@@ -3534,7 +3538,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21875BB1-04C3-477F-8DDF-DCC23421486B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90012176-7427-42CD-A9A7-E7EC8F75EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1665" windowWidth="15075" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -130,11 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1
-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Prefabs/TestPrefabs/Food1_Item.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -802,6 +797,10 @@
   <si>
     <t>STAR_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6
+5</t>
   </si>
 </sst>
 </file>
@@ -1170,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1228,7 @@
     </row>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1262,21 +1261,21 @@
         <v>0.05</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1285,7 +1284,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1309,27 +1308,27 @@
         <v>0.05</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1359,18 +1358,18 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1406,18 +1405,18 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1453,18 +1452,18 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1476,7 +1475,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1500,18 +1499,18 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1523,7 +1522,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1547,18 +1546,18 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
         <v>24</v>
       </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1570,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1594,18 +1593,18 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1614,45 +1613,45 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0.05</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>0.05</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1664,7 +1663,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1685,21 +1684,21 @@
         <v>0.05</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1711,7 +1710,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1735,18 +1734,18 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1758,7 +1757,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1782,30 +1781,30 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
         <v>24</v>
       </c>
-      <c r="N13" t="s">
-        <v>25</v>
-      </c>
       <c r="O13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1826,21 +1825,21 @@
         <v>0.05</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1849,45 +1848,45 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0.05</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>0.2</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>0.05</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
         <v>24</v>
       </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1899,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1923,18 +1922,18 @@
         <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1946,7 +1945,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -1970,18 +1969,18 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1993,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2017,18 +2016,18 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
         <v>24</v>
       </c>
-      <c r="N18" t="s">
-        <v>25</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2040,7 +2039,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -2061,21 +2060,21 @@
         <v>0.05</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2087,7 +2086,7 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2111,18 +2110,18 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2134,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2158,30 +2157,30 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -2205,18 +2204,18 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" t="s">
         <v>24</v>
       </c>
-      <c r="N22" t="s">
-        <v>25</v>
-      </c>
       <c r="O22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2228,7 +2227,7 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2249,21 +2248,21 @@
         <v>0.05</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2272,57 +2271,57 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>0.05</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>0.2</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>0.05</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" t="s">
         <v>24</v>
       </c>
-      <c r="N24" t="s">
-        <v>25</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2346,18 +2345,18 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2369,7 +2368,7 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -2393,18 +2392,18 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2416,7 +2415,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2440,30 +2439,30 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" t="s">
         <v>24</v>
       </c>
-      <c r="N27" t="s">
-        <v>25</v>
-      </c>
       <c r="O27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -2484,68 +2483,68 @@
         <v>0.05</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>0.2</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>0.05</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" t="s">
         <v>24</v>
       </c>
-      <c r="N29" t="s">
-        <v>25</v>
-      </c>
       <c r="O29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -2557,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -2581,18 +2580,18 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2604,7 +2603,7 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -2628,30 +2627,30 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -2675,30 +2674,30 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" t="s">
         <v>24</v>
       </c>
-      <c r="N32" t="s">
-        <v>25</v>
-      </c>
       <c r="O32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -2719,21 +2718,21 @@
         <v>0.05</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -2742,57 +2741,57 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>0.05</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="H34">
-        <v>0.2</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>5</v>
-      </c>
-      <c r="K34">
-        <v>0.05</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" t="s">
         <v>24</v>
       </c>
-      <c r="N34" t="s">
-        <v>25</v>
-      </c>
       <c r="O34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -2816,18 +2815,18 @@
         <v>2</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -2839,7 +2838,7 @@
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -2863,30 +2862,30 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -2910,18 +2909,18 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" t="s">
         <v>24</v>
       </c>
-      <c r="N37" t="s">
-        <v>25</v>
-      </c>
       <c r="O37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -2933,7 +2932,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -2954,21 +2953,21 @@
         <v>0.05</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -2977,45 +2976,45 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0.05</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>0.2</v>
-      </c>
-      <c r="I39">
-        <v>5</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39">
-        <v>0.05</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" t="s">
         <v>24</v>
       </c>
-      <c r="N39" t="s">
-        <v>25</v>
-      </c>
       <c r="O39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3027,7 +3026,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -3051,18 +3050,18 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3074,7 +3073,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -3098,30 +3097,30 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" t="s">
         <v>24</v>
       </c>
-      <c r="N41" t="s">
-        <v>25</v>
-      </c>
       <c r="O41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -3142,68 +3141,68 @@
         <v>0.05</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>0.05</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="H43">
-        <v>0.2</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>0.05</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M43" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" t="s">
         <v>24</v>
       </c>
-      <c r="N43" t="s">
-        <v>25</v>
-      </c>
       <c r="O43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -3215,7 +3214,7 @@
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -3239,18 +3238,18 @@
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -3262,7 +3261,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -3286,18 +3285,18 @@
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -3309,7 +3308,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -3333,18 +3332,18 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -3356,7 +3355,7 @@
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -3380,18 +3379,18 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -3403,7 +3402,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -3427,30 +3426,30 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" t="s">
         <v>24</v>
       </c>
-      <c r="N48" t="s">
-        <v>25</v>
-      </c>
       <c r="O48" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -3471,21 +3470,21 @@
         <v>0.05</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -3494,45 +3493,45 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>0.05</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="H50">
-        <v>0.2</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <v>5</v>
-      </c>
-      <c r="K50">
-        <v>0.05</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M50" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" t="s">
         <v>24</v>
       </c>
-      <c r="N50" t="s">
-        <v>25</v>
-      </c>
       <c r="O50" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -3544,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -3568,18 +3567,18 @@
         <v>2</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -3591,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -3615,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90012176-7427-42CD-A9A7-E7EC8F75EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71828678-89F6-40C8-9FDC-38B65FA737D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="13635" yWindow="1320" windowWidth="15075" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1231,7 +1231,7 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1278,7 +1278,7 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1325,7 +1325,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>140</v>
@@ -1372,7 +1372,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1419,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1466,7 +1466,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1513,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1560,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1607,7 +1607,7 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1654,7 +1654,7 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1701,7 +1701,7 @@
         <v>51</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1748,7 +1748,7 @@
         <v>52</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1795,7 +1795,7 @@
         <v>53</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
         <v>140</v>
@@ -1842,7 +1842,7 @@
         <v>54</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1889,7 +1889,7 @@
         <v>55</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1983,7 +1983,7 @@
         <v>62</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2030,7 +2030,7 @@
         <v>63</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -2077,7 +2077,7 @@
         <v>64</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2124,7 +2124,7 @@
         <v>69</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2171,7 +2171,7 @@
         <v>70</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>140</v>
@@ -2218,7 +2218,7 @@
         <v>71</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -2265,7 +2265,7 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2312,7 +2312,7 @@
         <v>73</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>140</v>
@@ -2359,7 +2359,7 @@
         <v>80</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -2406,7 +2406,7 @@
         <v>81</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2453,7 +2453,7 @@
         <v>82</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>140</v>
@@ -2500,7 +2500,7 @@
         <v>83</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
         <v>140</v>
@@ -2547,7 +2547,7 @@
         <v>84</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -2594,7 +2594,7 @@
         <v>91</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -2641,7 +2641,7 @@
         <v>92</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>140</v>
@@ -2688,7 +2688,7 @@
         <v>93</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
         <v>140</v>
@@ -2735,7 +2735,7 @@
         <v>94</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -2782,7 +2782,7 @@
         <v>95</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
         <v>140</v>
@@ -2829,7 +2829,7 @@
         <v>102</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -2876,7 +2876,7 @@
         <v>103</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
         <v>140</v>
@@ -2923,7 +2923,7 @@
         <v>104</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2970,7 +2970,7 @@
         <v>105</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -3017,7 +3017,7 @@
         <v>110</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -3064,7 +3064,7 @@
         <v>111</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
         <v>19</v>
@@ -3111,7 +3111,7 @@
         <v>112</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
         <v>140</v>
@@ -3158,7 +3158,7 @@
         <v>113</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
         <v>140</v>
@@ -3205,7 +3205,7 @@
         <v>114</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -3252,7 +3252,7 @@
         <v>115</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -3299,7 +3299,7 @@
         <v>116</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -3346,7 +3346,7 @@
         <v>125</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -3393,7 +3393,7 @@
         <v>126</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -3440,7 +3440,7 @@
         <v>127</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
         <v>140</v>
@@ -3487,7 +3487,7 @@
         <v>128</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -3534,7 +3534,7 @@
         <v>129</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -3581,7 +3581,7 @@
         <v>130</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71828678-89F6-40C8-9FDC-38B65FA737D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E731AEE4-95B9-4078-92D0-4831771D2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="1320" windowWidth="15075" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="5580" yWindow="1485" windowWidth="21345" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="145">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -801,6 +801,15 @@
   <si>
     <t>6
 5</t>
+  </si>
+  <si>
+    <t>_EffectPrefabPath</t>
+  </si>
+  <si>
+    <t>Assets/08.Assets/vfx_smoke_dust/Animation/FireEffect.prefab</t>
+  </si>
+  <si>
+    <t>Assets/08.Assets/vfx_liquid/Animation/LaserEffect.prefab</t>
   </si>
 </sst>
 </file>
@@ -1167,19 +1176,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,8 +1235,11 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1272,8 +1285,11 @@
       <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1319,8 +1335,11 @@
       <c r="O3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1366,8 +1385,11 @@
       <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="O5" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1460,8 +1485,11 @@
       <c r="O6" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1507,8 +1535,11 @@
       <c r="O7" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1554,8 +1585,11 @@
       <c r="O8" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1601,8 +1635,11 @@
       <c r="O9" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1648,8 +1685,11 @@
       <c r="O10" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1695,8 +1735,11 @@
       <c r="O11" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1742,8 +1785,11 @@
       <c r="O12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1789,8 +1835,11 @@
       <c r="O13" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1836,8 +1885,11 @@
       <c r="O14" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1883,8 +1935,11 @@
       <c r="O15" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1930,8 +1985,11 @@
       <c r="O16" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1977,8 +2035,11 @@
       <c r="O17" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2024,8 +2085,11 @@
       <c r="O18" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -2071,8 +2135,11 @@
       <c r="O19" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -2118,8 +2185,11 @@
       <c r="O20" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -2165,8 +2235,11 @@
       <c r="O21" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2212,8 +2285,11 @@
       <c r="O22" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -2259,8 +2335,11 @@
       <c r="O23" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2306,8 +2385,11 @@
       <c r="O24" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2353,8 +2435,11 @@
       <c r="O25" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -2400,8 +2485,11 @@
       <c r="O26" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2447,8 +2535,11 @@
       <c r="O27" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2494,8 +2585,11 @@
       <c r="O28" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -2541,8 +2635,11 @@
       <c r="O29" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2588,8 +2685,11 @@
       <c r="O30" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2635,8 +2735,11 @@
       <c r="O31" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2682,8 +2785,11 @@
       <c r="O32" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -2729,8 +2835,11 @@
       <c r="O33" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2776,8 +2885,11 @@
       <c r="O34" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2823,8 +2935,11 @@
       <c r="O35" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -2870,8 +2985,11 @@
       <c r="O36" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -2917,8 +3035,11 @@
       <c r="O37" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2964,8 +3085,11 @@
       <c r="O38" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -3011,8 +3135,11 @@
       <c r="O39" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -3058,8 +3185,11 @@
       <c r="O40" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -3105,8 +3235,11 @@
       <c r="O41" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -3152,8 +3285,11 @@
       <c r="O42" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>113</v>
       </c>
@@ -3199,8 +3335,11 @@
       <c r="O43" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -3246,8 +3385,11 @@
       <c r="O44" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -3293,8 +3435,11 @@
       <c r="O45" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -3340,8 +3485,11 @@
       <c r="O46" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -3387,8 +3535,11 @@
       <c r="O47" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -3434,8 +3585,11 @@
       <c r="O48" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -3481,8 +3635,11 @@
       <c r="O49" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -3528,8 +3685,11 @@
       <c r="O50" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -3575,8 +3735,11 @@
       <c r="O51" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -3622,19 +3785,22 @@
       <c r="O52" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E731AEE4-95B9-4078-92D0-4831771D2F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4962C1-C6A9-4DD5-A005-BC605EC54996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="1485" windowWidth="21345" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="146">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,18 +131,6 @@
   </si>
   <si>
     <t>Assets/Prefabs/TestPrefabs/Food1_Item.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefabs/TestPrefabs/RiceBullet.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefabs/TestPrefabs/MeatBullet.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefabs/TestPrefabs/BreadBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -810,6 +798,21 @@
   </si>
   <si>
     <t>Assets/08.Assets/vfx_liquid/Animation/LaserEffect.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/Item/Item_1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/RiceBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/BreadBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1178,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1236,12 +1239,12 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>88</v>
@@ -1274,24 +1277,24 @@
         <v>0.05</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -1300,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1324,30 +1327,30 @@
         <v>0.05</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1380,18 +1383,18 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>91</v>
@@ -1427,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>92</v>
@@ -1477,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -1503,7 +1506,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1527,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>43</v>
@@ -1553,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1577,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>93</v>
@@ -1603,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1627,21 +1630,21 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>57</v>
@@ -1650,10 +1653,10 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1674,24 +1677,24 @@
         <v>0.05</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>94</v>
@@ -1703,7 +1706,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1724,24 +1727,24 @@
         <v>0.05</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>95</v>
@@ -1753,7 +1756,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1777,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>54</v>
@@ -1803,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1827,33 +1830,33 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1874,24 +1877,24 @@
         <v>0.05</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>97</v>
@@ -1900,10 +1903,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -1924,24 +1927,24 @@
         <v>0.05</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>98</v>
@@ -1953,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1977,21 +1980,21 @@
         <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>99</v>
@@ -2003,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2027,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -2053,7 +2056,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2077,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>101</v>
@@ -2103,45 +2106,45 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>0.05</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>0.2</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>0.05</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>38</v>
@@ -2153,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2177,21 +2180,21 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>102</v>
@@ -2203,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2227,33 +2230,33 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -2277,21 +2280,21 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23">
         <v>104</v>
@@ -2303,45 +2306,45 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>0.05</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>0.2</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <v>0.05</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M23" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>105</v>
@@ -2350,10 +2353,10 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -2374,36 +2377,36 @@
         <v>0.05</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2427,21 +2430,21 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>106</v>
@@ -2453,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -2477,21 +2480,21 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>107</v>
@@ -2503,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2527,83 +2530,83 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>0.05</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28" t="s">
+        <v>143</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>0.2</v>
-      </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28">
-        <v>0.05</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M28" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -2624,24 +2627,24 @@
         <v>0.05</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N29" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -2653,7 +2656,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -2677,21 +2680,21 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <v>109</v>
@@ -2703,7 +2706,7 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -2727,33 +2730,33 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N31" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -2777,71 +2780,71 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33">
         <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>0.05</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N33" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33">
-        <v>0.2</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <v>0.05</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M33" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34">
         <v>112</v>
@@ -2850,10 +2853,10 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -2874,36 +2877,36 @@
         <v>0.05</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N34" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35">
         <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -2927,21 +2930,21 @@
         <v>2</v>
       </c>
       <c r="M35" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N35" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B36">
         <v>114</v>
@@ -2953,7 +2956,7 @@
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -2977,33 +2980,33 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N36" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -3027,21 +3030,21 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N37" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B38">
         <v>116</v>
@@ -3053,7 +3056,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -3074,24 +3077,24 @@
         <v>0.05</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39">
         <v>117</v>
@@ -3100,48 +3103,48 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0.05</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" t="s">
+        <v>142</v>
+      </c>
+      <c r="N39" t="s">
+        <v>144</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>0.2</v>
-      </c>
-      <c r="I39">
-        <v>5</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39">
-        <v>0.05</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40">
         <v>118</v>
@@ -3153,7 +3156,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -3177,21 +3180,21 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N40" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B41">
         <v>119</v>
@@ -3203,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -3227,83 +3230,83 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N41" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B42">
         <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>0.05</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N42" t="s">
+        <v>143</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-      <c r="H42">
-        <v>0.2</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="J42">
-        <v>5</v>
-      </c>
-      <c r="K42">
-        <v>0.05</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B43">
         <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -3324,24 +3327,24 @@
         <v>0.05</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N43" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B44">
         <v>122</v>
@@ -3353,7 +3356,7 @@
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -3377,21 +3380,21 @@
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N44" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -3403,7 +3406,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -3427,21 +3430,21 @@
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N45" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B46">
         <v>123</v>
@@ -3453,7 +3456,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -3477,21 +3480,21 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N46" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B47">
         <v>124</v>
@@ -3503,7 +3506,7 @@
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -3527,21 +3530,21 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N47" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B48">
         <v>125</v>
@@ -3553,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -3577,71 +3580,71 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N48" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B49">
         <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
       </c>
       <c r="E49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>0.05</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M49" t="s">
+        <v>142</v>
+      </c>
+      <c r="N49" t="s">
+        <v>143</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="G49">
-        <v>10</v>
-      </c>
-      <c r="H49">
-        <v>0.2</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-      <c r="K49">
-        <v>0.05</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M49" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B50">
         <v>127</v>
@@ -3650,10 +3653,10 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F50">
         <v>10</v>
@@ -3674,24 +3677,24 @@
         <v>0.05</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M50" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N50" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B51">
         <v>128</v>
@@ -3703,7 +3706,7 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -3727,21 +3730,21 @@
         <v>2</v>
       </c>
       <c r="M51" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N51" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B52">
         <v>129</v>
@@ -3753,7 +3756,7 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -3777,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="N52" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4962C1-C6A9-4DD5-A005-BC605EC54996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8AB9C5-22A1-4814-B98D-E26A85FC7464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1485" windowWidth="21345" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Prefabs/TestPrefabs/Food1_Item.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김치찌개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,9 +796,6 @@
     <t>Assets/08.Assets/vfx_liquid/Animation/LaserEffect.prefab</t>
   </si>
   <si>
-    <t>Assets/Prefabs/TestPrefabs/Item/Item_1.prefab</t>
-  </si>
-  <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,6 +805,13 @@
   </si>
   <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/BreadBullet.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/Item/Food1_Item.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/Item/Food1_Item.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1239,12 +1239,12 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>88</v>
@@ -1277,24 +1277,24 @@
         <v>0.05</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -1303,7 +1303,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1327,30 +1327,30 @@
         <v>0.05</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1380,21 +1380,21 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="N4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>91</v>
@@ -1430,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>92</v>
@@ -1480,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" t="s">
         <v>142</v>
       </c>
-      <c r="N6" t="s">
-        <v>144</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -1506,7 +1506,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1530,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>43</v>
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1580,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" t="s">
         <v>142</v>
       </c>
-      <c r="N8" t="s">
-        <v>144</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>93</v>
@@ -1606,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1630,21 +1630,21 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>57</v>
@@ -1653,48 +1653,48 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0.05</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>0.2</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>0.05</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" t="s">
         <v>142</v>
       </c>
-      <c r="N10" t="s">
-        <v>144</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>94</v>
@@ -1706,7 +1706,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1727,24 +1727,24 @@
         <v>0.05</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>95</v>
@@ -1756,7 +1756,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1780,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>54</v>
@@ -1806,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1830,33 +1830,33 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" t="s">
         <v>142</v>
       </c>
-      <c r="N13" t="s">
-        <v>144</v>
-      </c>
       <c r="O13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1877,24 +1877,24 @@
         <v>0.05</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>97</v>
@@ -1903,48 +1903,48 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0.05</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>0.2</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>0.05</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M15" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" t="s">
         <v>142</v>
       </c>
-      <c r="N15" t="s">
-        <v>144</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>98</v>
@@ -1956,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1980,21 +1980,21 @@
         <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>99</v>
@@ -2006,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2030,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -2056,7 +2056,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2080,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" t="s">
         <v>142</v>
       </c>
-      <c r="N18" t="s">
-        <v>144</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>101</v>
@@ -2106,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -2127,24 +2127,24 @@
         <v>0.05</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>38</v>
@@ -2156,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2180,21 +2180,21 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>102</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2230,33 +2230,33 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -2280,21 +2280,21 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" t="s">
         <v>142</v>
       </c>
-      <c r="N22" t="s">
-        <v>144</v>
-      </c>
       <c r="O22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>104</v>
@@ -2306,7 +2306,7 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2327,24 +2327,24 @@
         <v>0.05</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>105</v>
@@ -2353,60 +2353,60 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>0.05</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>0.2</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <v>0.05</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M24" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" t="s">
         <v>142</v>
       </c>
-      <c r="N24" t="s">
-        <v>144</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2430,21 +2430,21 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>106</v>
@@ -2456,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -2480,21 +2480,21 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>107</v>
@@ -2506,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2530,33 +2530,33 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" t="s">
         <v>142</v>
       </c>
-      <c r="N27" t="s">
-        <v>144</v>
-      </c>
       <c r="O27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -2577,74 +2577,74 @@
         <v>0.05</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>10</v>
-      </c>
-      <c r="H29">
-        <v>0.2</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>0.05</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M29" t="s">
+        <v>144</v>
+      </c>
+      <c r="N29" t="s">
         <v>142</v>
       </c>
-      <c r="N29" t="s">
-        <v>144</v>
-      </c>
       <c r="O29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -2656,7 +2656,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -2680,21 +2680,21 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>109</v>
@@ -2706,7 +2706,7 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -2730,33 +2730,33 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32">
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -2780,33 +2780,33 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N32" t="s">
         <v>142</v>
       </c>
-      <c r="N32" t="s">
-        <v>144</v>
-      </c>
       <c r="O32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33">
         <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -2827,24 +2827,24 @@
         <v>0.05</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34">
         <v>112</v>
@@ -2853,60 +2853,60 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>0.05</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="H34">
-        <v>0.2</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>5</v>
-      </c>
-      <c r="K34">
-        <v>0.05</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M34" t="s">
+        <v>144</v>
+      </c>
+      <c r="N34" t="s">
         <v>142</v>
       </c>
-      <c r="N34" t="s">
-        <v>144</v>
-      </c>
       <c r="O34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -2930,21 +2930,21 @@
         <v>2</v>
       </c>
       <c r="M35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36">
         <v>114</v>
@@ -2956,7 +2956,7 @@
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -2980,33 +2980,33 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37">
         <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -3030,21 +3030,21 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
+        <v>144</v>
+      </c>
+      <c r="N37" t="s">
         <v>142</v>
       </c>
-      <c r="N37" t="s">
-        <v>144</v>
-      </c>
       <c r="O37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>116</v>
@@ -3056,7 +3056,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -3077,24 +3077,24 @@
         <v>0.05</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39">
         <v>117</v>
@@ -3103,48 +3103,48 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0.05</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>0.2</v>
-      </c>
-      <c r="I39">
-        <v>5</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39">
-        <v>0.05</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M39" t="s">
+        <v>144</v>
+      </c>
+      <c r="N39" t="s">
         <v>142</v>
       </c>
-      <c r="N39" t="s">
-        <v>144</v>
-      </c>
       <c r="O39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40">
         <v>118</v>
@@ -3156,7 +3156,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -3180,21 +3180,21 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41">
         <v>119</v>
@@ -3206,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -3230,33 +3230,33 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
+        <v>144</v>
+      </c>
+      <c r="N41" t="s">
         <v>142</v>
       </c>
-      <c r="N41" t="s">
-        <v>144</v>
-      </c>
       <c r="O41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -3277,74 +3277,74 @@
         <v>0.05</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43">
         <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>0.05</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="H43">
-        <v>0.2</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>0.05</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M43" t="s">
+        <v>144</v>
+      </c>
+      <c r="N43" t="s">
         <v>142</v>
       </c>
-      <c r="N43" t="s">
-        <v>144</v>
-      </c>
       <c r="O43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44">
         <v>122</v>
@@ -3356,7 +3356,7 @@
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -3380,21 +3380,21 @@
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45">
         <v>32</v>
@@ -3406,7 +3406,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -3430,21 +3430,21 @@
         <v>2</v>
       </c>
       <c r="M45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46">
         <v>123</v>
@@ -3456,7 +3456,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -3480,21 +3480,21 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -3530,21 +3530,21 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48">
         <v>125</v>
@@ -3556,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -3580,33 +3580,33 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
+        <v>144</v>
+      </c>
+      <c r="N48" t="s">
         <v>142</v>
       </c>
-      <c r="N48" t="s">
-        <v>144</v>
-      </c>
       <c r="O48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49">
         <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -3627,24 +3627,24 @@
         <v>0.05</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50">
         <v>127</v>
@@ -3653,48 +3653,48 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>0.05</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="H50">
-        <v>0.2</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <v>5</v>
-      </c>
-      <c r="K50">
-        <v>0.05</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M50" t="s">
+        <v>144</v>
+      </c>
+      <c r="N50" t="s">
         <v>142</v>
       </c>
-      <c r="N50" t="s">
-        <v>144</v>
-      </c>
       <c r="O50" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51">
         <v>128</v>
@@ -3706,7 +3706,7 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -3730,21 +3730,21 @@
         <v>2</v>
       </c>
       <c r="M51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52">
         <v>129</v>
@@ -3756,7 +3756,7 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -3780,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8AB9C5-22A1-4814-B98D-E26A85FC7464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3FFCC-7897-4E48-A1AB-21E1FF169507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="4830" yWindow="825" windowWidth="22095" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="173">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,6 +812,156 @@
   </si>
   <si>
     <t>Assets/Prefabs/TestPrefabs/Item/Food1_Item.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치말이 국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimchi,1
+Water,2
+Noodle,1
+Seaweed,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만쥬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,3
+Egg,2
+Milk,2
+Redbean,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈코츠 라멘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바게트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,3
+Water,1
+Salt,1
+Butter,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Egg,1
+Milk,1
+Butter,1
+Salt,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아바타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,3
+Water,2
+Salt,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milk,2
+Sugar,3
+Flour,2
+Corn,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박파이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨 코코넛 수프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Egg,2
+Milk,1
+Sugar,2
+Pumpkin,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THAILAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coconut,1
+Meat,3
+Ginger,1
+Rice,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펨펙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,3
+Flour,2
+Salt,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨랑블랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아인토프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,3
+Sugar,2
+Egg,1
+Butter,1
+Cheese,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat,2
+Carrot,1
+Water,2
+Onion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카나페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour,2
+Water,1
+Cheese,2
+Egg,2
+Butter,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noodle,2
+Meat,2
+Garlic,1
+Water,2
+Onion,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1494,19 +1644,19 @@
     </row>
     <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1526,34 +1676,34 @@
       <c r="K7">
         <v>0.05</v>
       </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="L7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="M7" t="s">
         <v>144</v>
       </c>
       <c r="N7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -1576,17 +1726,17 @@
       <c r="K8">
         <v>0.05</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
         <v>144</v>
       </c>
       <c r="N8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
         <v>139</v>
@@ -1594,16 +1744,16 @@
     </row>
     <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -1626,17 +1776,17 @@
       <c r="K9">
         <v>0.05</v>
       </c>
-      <c r="L9">
-        <v>2</v>
+      <c r="L9" s="1">
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
         <v>139</v>
@@ -1644,16 +1794,16 @@
     </row>
     <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -1676,34 +1826,34 @@
       <c r="K10">
         <v>0.05</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
+      <c r="L10">
+        <v>2</v>
       </c>
       <c r="M10" t="s">
         <v>144</v>
       </c>
       <c r="N10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -1726,17 +1876,17 @@
       <c r="K11">
         <v>0.05</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>137</v>
+      <c r="L11">
+        <v>2</v>
       </c>
       <c r="M11" t="s">
         <v>144</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s">
         <v>139</v>
@@ -1744,19 +1894,19 @@
     </row>
     <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1776,37 +1926,37 @@
       <c r="K12">
         <v>0.05</v>
       </c>
-      <c r="L12">
-        <v>0</v>
+      <c r="L12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="M12" t="s">
         <v>144</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1826,17 +1976,17 @@
       <c r="K13">
         <v>0.05</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
+      <c r="L13" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="M13" t="s">
         <v>144</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
         <v>139</v>
@@ -1844,19 +1994,19 @@
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1877,33 +2027,33 @@
         <v>0.05</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="M14" t="s">
         <v>144</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -1926,34 +2076,34 @@
       <c r="K15">
         <v>0.05</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>29</v>
+      <c r="L15">
+        <v>0</v>
       </c>
       <c r="M15" t="s">
         <v>144</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1976,17 +2126,17 @@
       <c r="K16">
         <v>0.05</v>
       </c>
-      <c r="L16">
-        <v>2</v>
+      <c r="L16" s="1">
+        <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>144</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s">
         <v>139</v>
@@ -1994,19 +2144,19 @@
     </row>
     <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2026,8 +2176,8 @@
       <c r="K17">
         <v>0.05</v>
       </c>
-      <c r="L17">
-        <v>0</v>
+      <c r="L17" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="M17" t="s">
         <v>144</v>
@@ -2036,7 +2186,7 @@
         <v>141</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s">
         <v>139</v>
@@ -2044,19 +2194,19 @@
     </row>
     <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2076,8 +2226,8 @@
       <c r="K18">
         <v>0.05</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
+      <c r="L18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="M18" t="s">
         <v>144</v>
@@ -2086,27 +2236,27 @@
         <v>142</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -2126,17 +2276,17 @@
       <c r="K19">
         <v>0.05</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>137</v>
+      <c r="L19">
+        <v>2</v>
       </c>
       <c r="M19" t="s">
         <v>144</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P19" t="s">
         <v>139</v>
@@ -2144,16 +2294,16 @@
     </row>
     <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -2177,16 +2327,16 @@
         <v>0.05</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
         <v>144</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s">
         <v>139</v>
@@ -2194,19 +2344,19 @@
     </row>
     <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2226,17 +2376,17 @@
       <c r="K21">
         <v>0.05</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>0</v>
       </c>
       <c r="M21" t="s">
         <v>144</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s">
         <v>139</v>
@@ -2244,19 +2394,19 @@
     </row>
     <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -2276,17 +2426,17 @@
       <c r="K22">
         <v>0.05</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
+      <c r="L22" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="M22" t="s">
         <v>144</v>
       </c>
       <c r="N22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P22" t="s">
         <v>139</v>
@@ -2294,19 +2444,19 @@
     </row>
     <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2326,17 +2476,17 @@
       <c r="K23">
         <v>0.05</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>137</v>
+      <c r="L23">
+        <v>2</v>
       </c>
       <c r="M23" t="s">
         <v>144</v>
       </c>
       <c r="N23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="P23" t="s">
         <v>139</v>
@@ -2344,19 +2494,19 @@
     </row>
     <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -2376,28 +2526,28 @@
       <c r="K24">
         <v>0.05</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>29</v>
+      <c r="L24">
+        <v>2</v>
       </c>
       <c r="M24" t="s">
         <v>144</v>
       </c>
       <c r="N24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>136</v>
@@ -2406,7 +2556,7 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2436,7 +2586,7 @@
         <v>143</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="P25" t="s">
         <v>139</v>
@@ -2444,19 +2594,19 @@
     </row>
     <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -2477,16 +2627,16 @@
         <v>0.05</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="s">
         <v>144</v>
       </c>
       <c r="N26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="P26" t="s">
         <v>139</v>
@@ -2494,19 +2644,19 @@
     </row>
     <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -2526,17 +2676,17 @@
       <c r="K27">
         <v>0.05</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
         <v>144</v>
       </c>
       <c r="N27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s">
         <v>139</v>
@@ -2544,19 +2694,19 @@
     </row>
     <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -2576,17 +2726,17 @@
       <c r="K28">
         <v>0.05</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>137</v>
+      <c r="L28" s="1">
+        <v>0</v>
       </c>
       <c r="M28" t="s">
         <v>144</v>
       </c>
       <c r="N28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s">
         <v>139</v>
@@ -2594,19 +2744,19 @@
     </row>
     <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -2627,36 +2777,36 @@
         <v>0.05</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="M29" t="s">
         <v>144</v>
       </c>
       <c r="N29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -2676,37 +2826,37 @@
       <c r="K30">
         <v>0.05</v>
       </c>
-      <c r="L30">
-        <v>2</v>
+      <c r="L30" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="M30" t="s">
         <v>144</v>
       </c>
       <c r="N30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -2727,16 +2877,16 @@
         <v>0.05</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="s">
         <v>144</v>
       </c>
       <c r="N31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s">
         <v>139</v>
@@ -2744,19 +2894,19 @@
     </row>
     <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -2776,17 +2926,17 @@
       <c r="K32">
         <v>0.05</v>
       </c>
-      <c r="L32" s="1">
-        <v>0</v>
+      <c r="L32" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="M32" t="s">
         <v>144</v>
       </c>
       <c r="N32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="P32" t="s">
         <v>139</v>
@@ -2794,19 +2944,19 @@
     </row>
     <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -2826,8 +2976,8 @@
       <c r="K33">
         <v>0.05</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>137</v>
+      <c r="L33">
+        <v>0</v>
       </c>
       <c r="M33" t="s">
         <v>144</v>
@@ -2836,7 +2986,7 @@
         <v>141</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
         <v>139</v>
@@ -2844,19 +2994,19 @@
     </row>
     <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -2876,8 +3026,8 @@
       <c r="K34">
         <v>0.05</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>29</v>
+      <c r="L34" s="1">
+        <v>0</v>
       </c>
       <c r="M34" t="s">
         <v>144</v>
@@ -2886,27 +3036,27 @@
         <v>142</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B35">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -2926,17 +3076,17 @@
       <c r="K35">
         <v>0.05</v>
       </c>
-      <c r="L35">
-        <v>2</v>
+      <c r="L35" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="M35" t="s">
         <v>144</v>
       </c>
       <c r="N35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="P35" t="s">
         <v>139</v>
@@ -2944,19 +3094,19 @@
     </row>
     <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B36">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -2976,37 +3126,37 @@
       <c r="K36">
         <v>0.05</v>
       </c>
-      <c r="L36">
-        <v>0</v>
+      <c r="L36" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="M36" t="s">
         <v>144</v>
       </c>
       <c r="N36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -3026,17 +3176,17 @@
       <c r="K37">
         <v>0.05</v>
       </c>
-      <c r="L37" s="1">
-        <v>0</v>
+      <c r="L37">
+        <v>2</v>
       </c>
       <c r="M37" t="s">
         <v>144</v>
       </c>
       <c r="N37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="P37" t="s">
         <v>139</v>
@@ -3044,19 +3194,19 @@
     </row>
     <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -3076,17 +3226,17 @@
       <c r="K38">
         <v>0.05</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>137</v>
+      <c r="L38">
+        <v>2</v>
       </c>
       <c r="M38" t="s">
         <v>144</v>
       </c>
       <c r="N38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="P38" t="s">
         <v>139</v>
@@ -3094,19 +3244,19 @@
     </row>
     <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -3127,27 +3277,27 @@
         <v>0.05</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s">
         <v>144</v>
       </c>
       <c r="N39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -3156,7 +3306,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -3186,7 +3336,7 @@
         <v>141</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="P40" t="s">
         <v>139</v>
@@ -3194,19 +3344,19 @@
     </row>
     <row r="41" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B41">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -3236,7 +3386,7 @@
         <v>142</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="P41" t="s">
         <v>139</v>
@@ -3244,10 +3394,10 @@
     </row>
     <row r="42" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B42">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
@@ -3256,7 +3406,7 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -3286,7 +3436,7 @@
         <v>141</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="P42" t="s">
         <v>139</v>
@@ -3294,19 +3444,19 @@
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -3336,7 +3486,7 @@
         <v>142</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="P43" t="s">
         <v>140</v>
@@ -3344,19 +3494,19 @@
     </row>
     <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B44">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -3386,7 +3536,7 @@
         <v>143</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="P44" t="s">
         <v>139</v>
@@ -3394,19 +3544,19 @@
     </row>
     <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B45">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -3427,16 +3577,16 @@
         <v>0.05</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45" t="s">
         <v>144</v>
       </c>
       <c r="N45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="P45" t="s">
         <v>139</v>
@@ -3444,19 +3594,19 @@
     </row>
     <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B46">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -3486,7 +3636,7 @@
         <v>141</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="P46" t="s">
         <v>139</v>
@@ -3494,19 +3644,19 @@
     </row>
     <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -3526,17 +3676,17 @@
       <c r="K47">
         <v>0.05</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="1">
         <v>0</v>
       </c>
       <c r="M47" t="s">
         <v>144</v>
       </c>
       <c r="N47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="P47" t="s">
         <v>139</v>
@@ -3544,19 +3694,19 @@
     </row>
     <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B48">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -3576,17 +3726,17 @@
       <c r="K48">
         <v>0.05</v>
       </c>
-      <c r="L48" s="1">
-        <v>0</v>
+      <c r="L48" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="M48" t="s">
         <v>144</v>
       </c>
       <c r="N48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="P48" t="s">
         <v>139</v>
@@ -3594,19 +3744,19 @@
     </row>
     <row r="49" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B49">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -3627,36 +3777,36 @@
         <v>0.05</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="M49" t="s">
         <v>144</v>
       </c>
       <c r="N49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="P49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="B50">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F50">
         <v>10</v>
@@ -3676,37 +3826,37 @@
       <c r="K50">
         <v>0.05</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>29</v>
+      <c r="L50">
+        <v>2</v>
       </c>
       <c r="M50" t="s">
         <v>144</v>
       </c>
       <c r="N50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="P50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="B51">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -3726,17 +3876,17 @@
       <c r="K51">
         <v>0.05</v>
       </c>
-      <c r="L51">
-        <v>2</v>
+      <c r="L51" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="M51" t="s">
         <v>144</v>
       </c>
       <c r="N51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="P51" t="s">
         <v>139</v>
@@ -3744,19 +3894,19 @@
     </row>
     <row r="52" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B52">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F52">
         <v>10</v>
@@ -3786,53 +3936,685 @@
         <v>141</v>
       </c>
       <c r="O52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53">
+        <v>119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>0.2</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>0.05</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>144</v>
+      </c>
+      <c r="N53" t="s">
+        <v>142</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>0.2</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>0.05</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M54" t="s">
+        <v>144</v>
+      </c>
+      <c r="N54" t="s">
+        <v>141</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>0.05</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" t="s">
+        <v>142</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>0.05</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>144</v>
+      </c>
+      <c r="N56" t="s">
+        <v>143</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>0.2</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>0.05</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>144</v>
+      </c>
+      <c r="N57" t="s">
+        <v>143</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>0.2</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>0.05</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>144</v>
+      </c>
+      <c r="N58" t="s">
+        <v>141</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>0.2</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>0.05</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59" t="s">
+        <v>144</v>
+      </c>
+      <c r="N59" t="s">
+        <v>143</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>0.05</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>144</v>
+      </c>
+      <c r="N60" t="s">
+        <v>141</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>0.05</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>144</v>
+      </c>
+      <c r="N61" t="s">
+        <v>142</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>0.2</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>0.05</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M62" t="s">
+        <v>144</v>
+      </c>
+      <c r="N62" t="s">
+        <v>141</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
+        <v>0.05</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" t="s">
+        <v>144</v>
+      </c>
+      <c r="N63" t="s">
+        <v>142</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>0.2</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>0.05</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>144</v>
+      </c>
+      <c r="N64" t="s">
+        <v>143</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>0.05</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>144</v>
+      </c>
+      <c r="N65" t="s">
+        <v>141</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L65" s="1"/>
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="12:15" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3FFCC-7897-4E48-A1AB-21E1FF169507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF5C57B-D62D-4C0D-B54F-1842896A5C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="825" windowWidth="22095" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="5355" yWindow="450" windowWidth="22095" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1397,7 +1397,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1447,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1497,7 +1497,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>136</v>
@@ -1547,7 +1547,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1597,7 +1597,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1647,7 +1647,7 @@
         <v>146</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>136</v>
@@ -1697,7 +1697,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1747,7 +1747,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1797,7 +1797,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1847,7 +1847,7 @@
         <v>148</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -1897,7 +1897,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1947,7 +1947,7 @@
         <v>39</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1997,7 +1997,7 @@
         <v>150</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>136</v>
@@ -2047,7 +2047,7 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -2097,7 +2097,7 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -2147,7 +2147,7 @@
         <v>49</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>136</v>
@@ -2197,7 +2197,7 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -2247,7 +2247,7 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -2297,7 +2297,7 @@
         <v>57</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -2347,7 +2347,7 @@
         <v>58</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2397,7 +2397,7 @@
         <v>59</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -2447,7 +2447,7 @@
         <v>151</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -2497,7 +2497,7 @@
         <v>60</v>
       </c>
       <c r="B24">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -2547,7 +2547,7 @@
         <v>153</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>136</v>
@@ -2597,7 +2597,7 @@
         <v>155</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -2647,7 +2647,7 @@
         <v>65</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2697,7 +2697,7 @@
         <v>66</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>136</v>
@@ -2747,7 +2747,7 @@
         <v>67</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
@@ -2797,7 +2797,7 @@
         <v>68</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -2847,7 +2847,7 @@
         <v>69</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>136</v>
@@ -2897,7 +2897,7 @@
         <v>157</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2947,7 +2947,7 @@
         <v>76</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -2997,7 +2997,7 @@
         <v>77</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -3047,7 +3047,7 @@
         <v>78</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>136</v>
@@ -3097,7 +3097,7 @@
         <v>79</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>136</v>
@@ -3147,7 +3147,7 @@
         <v>80</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -3197,7 +3197,7 @@
         <v>159</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>136</v>
@@ -3247,7 +3247,7 @@
         <v>160</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
@@ -3297,7 +3297,7 @@
         <v>87</v>
       </c>
       <c r="B40">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -3347,7 +3347,7 @@
         <v>88</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>136</v>
@@ -3397,7 +3397,7 @@
         <v>89</v>
       </c>
       <c r="B42">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
@@ -3447,7 +3447,7 @@
         <v>90</v>
       </c>
       <c r="B43">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -3497,7 +3497,7 @@
         <v>91</v>
       </c>
       <c r="B44">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>136</v>
@@ -3547,7 +3547,7 @@
         <v>164</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -3597,7 +3597,7 @@
         <v>98</v>
       </c>
       <c r="B46">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -3647,7 +3647,7 @@
         <v>99</v>
       </c>
       <c r="B47">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>136</v>
@@ -3697,7 +3697,7 @@
         <v>100</v>
       </c>
       <c r="B48">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -3747,7 +3747,7 @@
         <v>101</v>
       </c>
       <c r="B49">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -3797,7 +3797,7 @@
         <v>166</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>136</v>
@@ -3847,7 +3847,7 @@
         <v>167</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -3897,7 +3897,7 @@
         <v>106</v>
       </c>
       <c r="B52">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -3947,7 +3947,7 @@
         <v>107</v>
       </c>
       <c r="B53">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -3997,7 +3997,7 @@
         <v>108</v>
       </c>
       <c r="B54">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>136</v>
@@ -4047,7 +4047,7 @@
         <v>109</v>
       </c>
       <c r="B55">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>136</v>
@@ -4097,7 +4097,7 @@
         <v>110</v>
       </c>
       <c r="B56">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -4147,7 +4147,7 @@
         <v>111</v>
       </c>
       <c r="B57">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -4197,7 +4197,7 @@
         <v>112</v>
       </c>
       <c r="B58">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -4247,7 +4247,7 @@
         <v>170</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
@@ -4297,7 +4297,7 @@
         <v>121</v>
       </c>
       <c r="B60">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -4347,7 +4347,7 @@
         <v>122</v>
       </c>
       <c r="B61">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -4397,7 +4397,7 @@
         <v>123</v>
       </c>
       <c r="B62">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>136</v>
@@ -4447,7 +4447,7 @@
         <v>124</v>
       </c>
       <c r="B63">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -4497,7 +4497,7 @@
         <v>125</v>
       </c>
       <c r="B64">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -4547,7 +4547,7 @@
         <v>126</v>
       </c>
       <c r="B65">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF5C57B-D62D-4C0D-B54F-1842896A5C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763B806-61DC-41A2-B66F-42F9EEAB0863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5355" yWindow="450" windowWidth="22095" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ServeWay\ServeWay_Project\Assets\07.Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763B806-61DC-41A2-B66F-42F9EEAB0863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D283A-7595-4FED-960D-CD86B18CC41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="450" windowWidth="22095" windowHeight="13395" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="178">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,6 +962,25 @@
 Garlic,1
 Water,2
 Onion,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_BulletColor_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_BulletColor_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_BulletColor_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/SoupBullet.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/SoupBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1329,20 +1348,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="15" width="15.625" customWidth="1"/>
+    <col min="2" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="65.375" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1415,17 @@
       <c r="P1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1412,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -1433,7 +1466,7 @@
         <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>32</v>
@@ -1441,8 +1474,17 @@
       <c r="P2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q2">
+        <v>230</v>
+      </c>
+      <c r="R2">
+        <v>109</v>
+      </c>
+      <c r="S2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1533,17 @@
       <c r="P3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3">
+        <v>255</v>
+      </c>
+      <c r="R3">
+        <v>255</v>
+      </c>
+      <c r="S3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1541,8 +1592,17 @@
       <c r="P4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>255</v>
+      </c>
+      <c r="R4">
+        <v>255</v>
+      </c>
+      <c r="S4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1591,8 +1651,17 @@
       <c r="P5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>255</v>
+      </c>
+      <c r="R5">
+        <v>255</v>
+      </c>
+      <c r="S5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1609,13 +1678,13 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1641,8 +1710,17 @@
       <c r="P6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>255</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -1691,8 +1769,17 @@
       <c r="P7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>255</v>
+      </c>
+      <c r="R7">
+        <v>255</v>
+      </c>
+      <c r="S7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1741,8 +1828,17 @@
       <c r="P8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>255</v>
+      </c>
+      <c r="R8">
+        <v>255</v>
+      </c>
+      <c r="S8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1791,8 +1887,17 @@
       <c r="P9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>255</v>
+      </c>
+      <c r="R9">
+        <v>255</v>
+      </c>
+      <c r="S9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1841,8 +1946,17 @@
       <c r="P10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>255</v>
+      </c>
+      <c r="R10">
+        <v>255</v>
+      </c>
+      <c r="S10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -1891,8 +2005,17 @@
       <c r="P11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>255</v>
+      </c>
+      <c r="R11">
+        <v>255</v>
+      </c>
+      <c r="S11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1941,8 +2064,17 @@
       <c r="P12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>255</v>
+      </c>
+      <c r="R12">
+        <v>255</v>
+      </c>
+      <c r="S12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1983,7 +2115,7 @@
         <v>144</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>45</v>
@@ -1991,8 +2123,17 @@
       <c r="P13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>255</v>
+      </c>
+      <c r="R13">
+        <v>255</v>
+      </c>
+      <c r="S13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -2041,8 +2182,17 @@
       <c r="P14" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>255</v>
+      </c>
+      <c r="R14">
+        <v>255</v>
+      </c>
+      <c r="S14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2091,8 +2241,17 @@
       <c r="P15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>255</v>
+      </c>
+      <c r="R15">
+        <v>255</v>
+      </c>
+      <c r="S15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2141,8 +2300,17 @@
       <c r="P16" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>255</v>
+      </c>
+      <c r="R16">
+        <v>255</v>
+      </c>
+      <c r="S16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2183,7 +2351,7 @@
         <v>144</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>54</v>
@@ -2191,8 +2359,17 @@
       <c r="P17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>255</v>
+      </c>
+      <c r="R17">
+        <v>255</v>
+      </c>
+      <c r="S17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2241,8 +2418,17 @@
       <c r="P18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>255</v>
+      </c>
+      <c r="R18">
+        <v>255</v>
+      </c>
+      <c r="S18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2291,8 +2477,17 @@
       <c r="P19" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>255</v>
+      </c>
+      <c r="R19">
+        <v>255</v>
+      </c>
+      <c r="S19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2341,8 +2536,17 @@
       <c r="P20" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>255</v>
+      </c>
+      <c r="R20">
+        <v>255</v>
+      </c>
+      <c r="S20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2391,8 +2595,17 @@
       <c r="P21" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>255</v>
+      </c>
+      <c r="R21">
+        <v>255</v>
+      </c>
+      <c r="S21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2433,7 +2646,7 @@
         <v>144</v>
       </c>
       <c r="N22" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>64</v>
@@ -2441,8 +2654,17 @@
       <c r="P22" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>255</v>
+      </c>
+      <c r="R22">
+        <v>255</v>
+      </c>
+      <c r="S22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -2491,8 +2713,17 @@
       <c r="P23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>255</v>
+      </c>
+      <c r="R23">
+        <v>255</v>
+      </c>
+      <c r="S23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2541,8 +2772,17 @@
       <c r="P24" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <v>255</v>
+      </c>
+      <c r="R24">
+        <v>255</v>
+      </c>
+      <c r="S24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -2591,8 +2831,17 @@
       <c r="P25" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <v>255</v>
+      </c>
+      <c r="R25">
+        <v>255</v>
+      </c>
+      <c r="S25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>155</v>
       </c>
@@ -2641,8 +2890,17 @@
       <c r="P26" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <v>255</v>
+      </c>
+      <c r="R26">
+        <v>255</v>
+      </c>
+      <c r="S26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2691,8 +2949,17 @@
       <c r="P27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <v>255</v>
+      </c>
+      <c r="R27">
+        <v>255</v>
+      </c>
+      <c r="S27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2741,8 +3008,17 @@
       <c r="P28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <v>255</v>
+      </c>
+      <c r="R28">
+        <v>255</v>
+      </c>
+      <c r="S28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -2783,7 +3059,7 @@
         <v>144</v>
       </c>
       <c r="N29" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>73</v>
@@ -2791,8 +3067,17 @@
       <c r="P29" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <v>255</v>
+      </c>
+      <c r="R29">
+        <v>255</v>
+      </c>
+      <c r="S29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -2841,8 +3126,17 @@
       <c r="P30" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <v>255</v>
+      </c>
+      <c r="R30">
+        <v>255</v>
+      </c>
+      <c r="S30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2891,8 +3185,17 @@
       <c r="P31" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <v>255</v>
+      </c>
+      <c r="R31">
+        <v>255</v>
+      </c>
+      <c r="S31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -2933,7 +3236,7 @@
         <v>144</v>
       </c>
       <c r="N32" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>158</v>
@@ -2941,8 +3244,17 @@
       <c r="P32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>255</v>
+      </c>
+      <c r="R32">
+        <v>255</v>
+      </c>
+      <c r="S32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3303,17 @@
       <c r="P33" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <v>255</v>
+      </c>
+      <c r="R33">
+        <v>255</v>
+      </c>
+      <c r="S33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -3041,8 +3362,17 @@
       <c r="P34" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <v>255</v>
+      </c>
+      <c r="R34">
+        <v>255</v>
+      </c>
+      <c r="S34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -3083,7 +3413,7 @@
         <v>144</v>
       </c>
       <c r="N35" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>84</v>
@@ -3091,8 +3421,17 @@
       <c r="P35" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <v>255</v>
+      </c>
+      <c r="R35">
+        <v>255</v>
+      </c>
+      <c r="S35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3141,8 +3480,17 @@
       <c r="P36" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <v>255</v>
+      </c>
+      <c r="R36">
+        <v>255</v>
+      </c>
+      <c r="S36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -3191,8 +3539,17 @@
       <c r="P37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <v>255</v>
+      </c>
+      <c r="R37">
+        <v>255</v>
+      </c>
+      <c r="S37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -3241,8 +3598,17 @@
       <c r="P38" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <v>255</v>
+      </c>
+      <c r="R38">
+        <v>255</v>
+      </c>
+      <c r="S38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -3283,7 +3649,7 @@
         <v>144</v>
       </c>
       <c r="N39" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>163</v>
@@ -3291,8 +3657,17 @@
       <c r="P39" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <v>255</v>
+      </c>
+      <c r="R39">
+        <v>255</v>
+      </c>
+      <c r="S39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3341,8 +3716,17 @@
       <c r="P40" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <v>255</v>
+      </c>
+      <c r="R40">
+        <v>255</v>
+      </c>
+      <c r="S40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -3391,8 +3775,17 @@
       <c r="P41" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <v>255</v>
+      </c>
+      <c r="R41">
+        <v>255</v>
+      </c>
+      <c r="S41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -3433,7 +3826,7 @@
         <v>144</v>
       </c>
       <c r="N42" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>95</v>
@@ -3441,8 +3834,17 @@
       <c r="P42" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <v>255</v>
+      </c>
+      <c r="R42">
+        <v>255</v>
+      </c>
+      <c r="S42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -3491,8 +3893,17 @@
       <c r="P43" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <v>255</v>
+      </c>
+      <c r="R43">
+        <v>255</v>
+      </c>
+      <c r="S43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3541,8 +3952,17 @@
       <c r="P44" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>255</v>
+      </c>
+      <c r="R44">
+        <v>255</v>
+      </c>
+      <c r="S44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -3591,8 +4011,17 @@
       <c r="P45" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <v>255</v>
+      </c>
+      <c r="R45">
+        <v>255</v>
+      </c>
+      <c r="S45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -3641,8 +4070,17 @@
       <c r="P46" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <v>255</v>
+      </c>
+      <c r="R46">
+        <v>255</v>
+      </c>
+      <c r="S46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -3691,8 +4129,17 @@
       <c r="P47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q47">
+        <v>255</v>
+      </c>
+      <c r="R47">
+        <v>255</v>
+      </c>
+      <c r="S47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -3733,7 +4180,7 @@
         <v>144</v>
       </c>
       <c r="N48" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>104</v>
@@ -3741,8 +4188,17 @@
       <c r="P48" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <v>255</v>
+      </c>
+      <c r="R48">
+        <v>255</v>
+      </c>
+      <c r="S48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -3791,8 +4247,17 @@
       <c r="P49" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q49">
+        <v>255</v>
+      </c>
+      <c r="R49">
+        <v>255</v>
+      </c>
+      <c r="S49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>166</v>
       </c>
@@ -3841,8 +4306,17 @@
       <c r="P50" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q50">
+        <v>255</v>
+      </c>
+      <c r="R50">
+        <v>255</v>
+      </c>
+      <c r="S50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -3883,7 +4357,7 @@
         <v>144</v>
       </c>
       <c r="N51" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>169</v>
@@ -3891,8 +4365,17 @@
       <c r="P51" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q51">
+        <v>255</v>
+      </c>
+      <c r="R51">
+        <v>255</v>
+      </c>
+      <c r="S51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -3941,8 +4424,17 @@
       <c r="P52" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q52">
+        <v>255</v>
+      </c>
+      <c r="R52">
+        <v>255</v>
+      </c>
+      <c r="S52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -3991,8 +4483,17 @@
       <c r="P53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q53">
+        <v>255</v>
+      </c>
+      <c r="R53">
+        <v>255</v>
+      </c>
+      <c r="S53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -4033,7 +4534,7 @@
         <v>144</v>
       </c>
       <c r="N54" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>116</v>
@@ -4041,8 +4542,17 @@
       <c r="P54" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q54">
+        <v>255</v>
+      </c>
+      <c r="R54">
+        <v>255</v>
+      </c>
+      <c r="S54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -4091,8 +4601,17 @@
       <c r="P55" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q55">
+        <v>255</v>
+      </c>
+      <c r="R55">
+        <v>255</v>
+      </c>
+      <c r="S55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -4141,8 +4660,17 @@
       <c r="P56" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q56">
+        <v>255</v>
+      </c>
+      <c r="R56">
+        <v>255</v>
+      </c>
+      <c r="S56">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -4191,8 +4719,17 @@
       <c r="P57" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q57">
+        <v>255</v>
+      </c>
+      <c r="R57">
+        <v>255</v>
+      </c>
+      <c r="S57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -4241,8 +4778,17 @@
       <c r="P58" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q58">
+        <v>255</v>
+      </c>
+      <c r="R58">
+        <v>255</v>
+      </c>
+      <c r="S58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -4291,8 +4837,17 @@
       <c r="P59" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q59">
+        <v>255</v>
+      </c>
+      <c r="R59">
+        <v>255</v>
+      </c>
+      <c r="S59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -4341,8 +4896,17 @@
       <c r="P60" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q60">
+        <v>255</v>
+      </c>
+      <c r="R60">
+        <v>255</v>
+      </c>
+      <c r="S60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -4391,8 +4955,17 @@
       <c r="P61" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q61">
+        <v>255</v>
+      </c>
+      <c r="R61">
+        <v>255</v>
+      </c>
+      <c r="S61">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -4433,7 +5006,7 @@
         <v>144</v>
       </c>
       <c r="N62" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>130</v>
@@ -4441,8 +5014,17 @@
       <c r="P62" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q62">
+        <v>255</v>
+      </c>
+      <c r="R62">
+        <v>255</v>
+      </c>
+      <c r="S62">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -4491,8 +5073,17 @@
       <c r="P63" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q63">
+        <v>255</v>
+      </c>
+      <c r="R63">
+        <v>255</v>
+      </c>
+      <c r="S63">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -4541,8 +5132,17 @@
       <c r="P64" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q64">
+        <v>255</v>
+      </c>
+      <c r="R64">
+        <v>255</v>
+      </c>
+      <c r="S64">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -4591,30 +5191,39 @@
       <c r="P65" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q65">
+        <v>255</v>
+      </c>
+      <c r="R65">
+        <v>255</v>
+      </c>
+      <c r="S65">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D283A-7595-4FED-960D-CD86B18CC41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCE058F-2790-4856-8361-194EFFC6C184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="189">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,11 +151,6 @@
   </si>
   <si>
     <t>NOODLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3
-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -783,10 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6
-5</t>
-  </si>
-  <si>
     <t>_EffectPrefabPath</t>
   </si>
   <si>
@@ -982,6 +973,60 @@
   <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/SoupBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7
+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6
+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10
+6</t>
+  </si>
+  <si>
+    <t>18
+7</t>
+  </si>
+  <si>
+    <t>12
+7</t>
+  </si>
+  <si>
+    <t>5
+5</t>
+  </si>
+  <si>
+    <t>9
+6</t>
+  </si>
+  <si>
+    <t>15
+7</t>
+  </si>
+  <si>
+    <t>8
+6</t>
+  </si>
+  <si>
+    <t>6
+4</t>
+  </si>
+  <si>
+    <t>4
+4</t>
+  </si>
+  <si>
+    <t>7
+6</t>
+  </si>
+  <si>
+    <t>6
+6</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1413,16 +1458,16 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" t="s">
         <v>173</v>
-      </c>
-      <c r="R1" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1442,37 +1487,37 @@
         <v>21</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0.35</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
         <v>137</v>
-      </c>
-      <c r="M2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>139</v>
       </c>
       <c r="Q2">
         <v>230</v>
@@ -1501,37 +1546,37 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>0.2</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>0.35</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
         <v>0.05</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>255</v>
@@ -1551,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1560,37 +1605,37 @@
         <v>21</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>255</v>
@@ -1610,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1619,37 +1664,37 @@
         <v>21</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>255</v>
@@ -1678,19 +1723,19 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
         <v>0.05</v>
@@ -1699,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>255</v>
@@ -1722,13 +1767,13 @@
     </row>
     <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1737,37 +1782,37 @@
         <v>21</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>255</v>
@@ -1781,7 +1826,7 @@
     </row>
     <row r="8" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1793,22 +1838,22 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
         <v>0.05</v>
@@ -1817,16 +1862,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>255</v>
@@ -1840,7 +1885,7 @@
     </row>
     <row r="9" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1852,22 +1897,22 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
         <v>0.2</v>
       </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
       <c r="J9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
         <v>0.05</v>
@@ -1876,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>255</v>
@@ -1899,7 +1944,7 @@
     </row>
     <row r="10" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1911,40 +1956,40 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
         <v>0.05</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>255</v>
@@ -1958,52 +2003,52 @@
     </row>
     <row r="11" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>255</v>
@@ -2017,7 +2062,7 @@
     </row>
     <row r="12" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -2029,40 +2074,40 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>0.2</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>0.35</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
         <v>0.05</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>29</v>
+      <c r="L12" s="1">
+        <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>255</v>
@@ -2076,7 +2121,7 @@
     </row>
     <row r="13" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -2088,40 +2133,40 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>0.35</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" t="s">
+        <v>174</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
         <v>137</v>
-      </c>
-      <c r="M13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" t="s">
-        <v>176</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" t="s">
-        <v>139</v>
       </c>
       <c r="Q13">
         <v>255</v>
@@ -2135,52 +2180,52 @@
     </row>
     <row r="14" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.05</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>255</v>
@@ -2194,7 +2239,7 @@
     </row>
     <row r="15" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -2206,40 +2251,40 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>255</v>
@@ -2253,7 +2298,7 @@
     </row>
     <row r="16" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -2265,22 +2310,22 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H16">
+        <v>0.25</v>
+      </c>
+      <c r="I16">
         <v>0.2</v>
       </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
       <c r="J16">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
         <v>0.05</v>
@@ -2289,16 +2334,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>255</v>
@@ -2312,52 +2357,52 @@
     </row>
     <row r="17" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s">
         <v>137</v>
-      </c>
-      <c r="M17" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17" t="s">
-        <v>176</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" t="s">
-        <v>139</v>
       </c>
       <c r="Q17">
         <v>255</v>
@@ -2371,7 +2416,7 @@
     </row>
     <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -2383,40 +2428,40 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>0.35</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
         <v>0.05</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>29</v>
+      <c r="L18" s="1">
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>255</v>
@@ -2430,7 +2475,7 @@
     </row>
     <row r="19" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2442,40 +2487,40 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>255</v>
@@ -2489,7 +2534,7 @@
     </row>
     <row r="20" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -2501,40 +2546,40 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>255</v>
@@ -2548,7 +2593,7 @@
     </row>
     <row r="21" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -2560,22 +2605,22 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21">
         <v>0.2</v>
       </c>
-      <c r="I21">
-        <v>5</v>
-      </c>
       <c r="J21">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K21">
         <v>0.05</v>
@@ -2584,16 +2629,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>255</v>
@@ -2607,7 +2652,7 @@
     </row>
     <row r="22" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2619,40 +2664,40 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K22">
         <v>0.05</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s">
         <v>137</v>
-      </c>
-      <c r="M22" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" t="s">
-        <v>176</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" t="s">
-        <v>139</v>
       </c>
       <c r="Q22">
         <v>255</v>
@@ -2666,7 +2711,7 @@
     </row>
     <row r="23" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -2678,40 +2723,40 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K23">
         <v>0.05</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>255</v>
@@ -2725,7 +2770,7 @@
     </row>
     <row r="24" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -2737,40 +2782,40 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>255</v>
@@ -2784,52 +2829,52 @@
     </row>
     <row r="25" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L25">
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>255</v>
@@ -2843,7 +2888,7 @@
     </row>
     <row r="26" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2855,40 +2900,40 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>255</v>
@@ -2902,7 +2947,7 @@
     </row>
     <row r="27" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -2914,40 +2959,40 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H27">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>255</v>
@@ -2961,52 +3006,52 @@
     </row>
     <row r="28" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K28">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>255</v>
@@ -3020,7 +3065,7 @@
     </row>
     <row r="29" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -3032,40 +3077,40 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K29">
         <v>0.05</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N29" t="s">
+        <v>174</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s">
         <v>137</v>
-      </c>
-      <c r="M29" t="s">
-        <v>144</v>
-      </c>
-      <c r="N29" t="s">
-        <v>176</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" t="s">
-        <v>139</v>
       </c>
       <c r="Q29">
         <v>255</v>
@@ -3079,7 +3124,7 @@
     </row>
     <row r="30" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -3091,40 +3136,40 @@
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H30">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K30">
-        <v>0.05</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>255</v>
@@ -3138,52 +3183,52 @@
     </row>
     <row r="31" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J31">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K31">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L31">
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>255</v>
@@ -3197,7 +3242,7 @@
     </row>
     <row r="32" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -3209,40 +3254,40 @@
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>0.35</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K32">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M32" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" t="s">
+        <v>174</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P32" t="s">
         <v>137</v>
-      </c>
-      <c r="M32" t="s">
-        <v>144</v>
-      </c>
-      <c r="N32" t="s">
-        <v>176</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P32" t="s">
-        <v>139</v>
       </c>
       <c r="Q32">
         <v>255</v>
@@ -3256,7 +3301,7 @@
     </row>
     <row r="33" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -3268,22 +3313,22 @@
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K33">
         <v>0.05</v>
@@ -3292,16 +3337,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>255</v>
@@ -3315,7 +3360,7 @@
     </row>
     <row r="34" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -3327,22 +3372,22 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H34">
+        <v>0.25</v>
+      </c>
+      <c r="I34">
         <v>0.2</v>
       </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
       <c r="J34">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K34">
         <v>0.05</v>
@@ -3351,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>255</v>
@@ -3374,52 +3419,52 @@
     </row>
     <row r="35" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" t="s">
+        <v>174</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" t="s">
         <v>137</v>
-      </c>
-      <c r="M35" t="s">
-        <v>144</v>
-      </c>
-      <c r="N35" t="s">
-        <v>176</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P35" t="s">
-        <v>139</v>
       </c>
       <c r="Q35">
         <v>255</v>
@@ -3433,52 +3478,52 @@
     </row>
     <row r="36" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I36">
         <v>0.2</v>
       </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
       <c r="J36">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K36">
-        <v>0.05</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>29</v>
+        <v>0.01</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>255</v>
@@ -3492,7 +3537,7 @@
     </row>
     <row r="37" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -3504,40 +3549,40 @@
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K37">
         <v>0.05</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>255</v>
@@ -3551,52 +3596,52 @@
     </row>
     <row r="38" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H38">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K38">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L38">
         <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q38">
         <v>255</v>
@@ -3610,7 +3655,7 @@
     </row>
     <row r="39" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -3622,40 +3667,40 @@
         <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K39">
         <v>0.05</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M39" t="s">
+        <v>142</v>
+      </c>
+      <c r="N39" t="s">
+        <v>174</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P39" t="s">
         <v>137</v>
-      </c>
-      <c r="M39" t="s">
-        <v>144</v>
-      </c>
-      <c r="N39" t="s">
-        <v>176</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P39" t="s">
-        <v>139</v>
       </c>
       <c r="Q39">
         <v>255</v>
@@ -3669,7 +3714,7 @@
     </row>
     <row r="40" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -3681,40 +3726,40 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H40">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K40">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q40">
         <v>255</v>
@@ -3728,52 +3773,52 @@
     </row>
     <row r="41" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H41">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K41">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>255</v>
@@ -3787,52 +3832,52 @@
     </row>
     <row r="42" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K42">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N42" t="s">
+        <v>174</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="s">
         <v>137</v>
-      </c>
-      <c r="M42" t="s">
-        <v>144</v>
-      </c>
-      <c r="N42" t="s">
-        <v>176</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P42" t="s">
-        <v>139</v>
       </c>
       <c r="Q42">
         <v>255</v>
@@ -3846,7 +3891,7 @@
     </row>
     <row r="43" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -3858,40 +3903,40 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K43">
-        <v>0.05</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q43">
         <v>255</v>
@@ -3905,52 +3950,52 @@
     </row>
     <row r="44" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H44">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K44">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L44">
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q44">
         <v>255</v>
@@ -3964,7 +4009,7 @@
     </row>
     <row r="45" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -3976,22 +4021,22 @@
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K45">
         <v>0.05</v>
@@ -4000,16 +4045,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q45">
         <v>255</v>
@@ -4023,7 +4068,7 @@
     </row>
     <row r="46" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -4035,40 +4080,40 @@
         <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46">
         <v>10</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K46">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q46">
         <v>255</v>
@@ -4082,52 +4127,52 @@
     </row>
     <row r="47" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K47">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L47" s="1">
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q47">
         <v>255</v>
@@ -4141,7 +4186,7 @@
     </row>
     <row r="48" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -4153,40 +4198,40 @@
         <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="J48">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K48">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M48" t="s">
+        <v>142</v>
+      </c>
+      <c r="N48" t="s">
+        <v>174</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48" t="s">
         <v>137</v>
-      </c>
-      <c r="M48" t="s">
-        <v>144</v>
-      </c>
-      <c r="N48" t="s">
-        <v>176</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P48" t="s">
-        <v>139</v>
       </c>
       <c r="Q48">
         <v>255</v>
@@ -4200,7 +4245,7 @@
     </row>
     <row r="49" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -4212,40 +4257,40 @@
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H49">
         <v>0.2</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>0.35</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K49">
         <v>0.05</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>29</v>
+      <c r="L49" s="1">
+        <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q49">
         <v>255</v>
@@ -4259,52 +4304,52 @@
     </row>
     <row r="50" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H50">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K50">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L50">
         <v>2</v>
       </c>
       <c r="M50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q50">
         <v>255</v>
@@ -4318,7 +4363,7 @@
     </row>
     <row r="51" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -4330,40 +4375,40 @@
         <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H51">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K51">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M51" t="s">
+        <v>142</v>
+      </c>
+      <c r="N51" t="s">
+        <v>174</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P51" t="s">
         <v>137</v>
-      </c>
-      <c r="M51" t="s">
-        <v>144</v>
-      </c>
-      <c r="N51" t="s">
-        <v>176</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P51" t="s">
-        <v>139</v>
       </c>
       <c r="Q51">
         <v>255</v>
@@ -4377,7 +4422,7 @@
     </row>
     <row r="52" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -4389,40 +4434,40 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H52">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K52">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q52">
         <v>255</v>
@@ -4436,7 +4481,7 @@
     </row>
     <row r="53" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -4448,40 +4493,40 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>0.2</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>0.15</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K53">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L53" s="1">
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q53">
         <v>255</v>
@@ -4495,52 +4540,52 @@
     </row>
     <row r="54" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H54">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K54">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M54" t="s">
+        <v>142</v>
+      </c>
+      <c r="N54" t="s">
+        <v>174</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P54" t="s">
         <v>137</v>
-      </c>
-      <c r="M54" t="s">
-        <v>144</v>
-      </c>
-      <c r="N54" t="s">
-        <v>176</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P54" t="s">
-        <v>139</v>
       </c>
       <c r="Q54">
         <v>255</v>
@@ -4554,52 +4599,52 @@
     </row>
     <row r="55" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H55">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="J55">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K55">
-        <v>0.05</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q55">
         <v>255</v>
@@ -4613,7 +4658,7 @@
     </row>
     <row r="56" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -4625,40 +4670,40 @@
         <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K56">
         <v>0.05</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q56">
         <v>255</v>
@@ -4672,7 +4717,7 @@
     </row>
     <row r="57" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -4684,40 +4729,40 @@
         <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H57">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K57">
         <v>0.05</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q57">
         <v>255</v>
@@ -4731,7 +4776,7 @@
     </row>
     <row r="58" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -4743,22 +4788,22 @@
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K58">
         <v>0.05</v>
@@ -4767,16 +4812,16 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q58">
         <v>255</v>
@@ -4790,7 +4835,7 @@
     </row>
     <row r="59" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -4802,40 +4847,40 @@
         <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K59">
         <v>0.05</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q59">
         <v>255</v>
@@ -4849,7 +4894,7 @@
     </row>
     <row r="60" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4861,22 +4906,22 @@
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H60">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K60">
         <v>0.05</v>
@@ -4885,16 +4930,16 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q60">
         <v>255</v>
@@ -4908,7 +4953,7 @@
     </row>
     <row r="61" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -4920,22 +4965,22 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K61">
         <v>0.05</v>
@@ -4944,16 +4989,16 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q61">
         <v>255</v>
@@ -4967,52 +5012,52 @@
     </row>
     <row r="62" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62">
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H62">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K62">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M62" t="s">
+        <v>142</v>
+      </c>
+      <c r="N62" t="s">
+        <v>174</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P62" t="s">
         <v>137</v>
-      </c>
-      <c r="M62" t="s">
-        <v>144</v>
-      </c>
-      <c r="N62" t="s">
-        <v>176</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P62" t="s">
-        <v>139</v>
       </c>
       <c r="Q62">
         <v>255</v>
@@ -5026,7 +5071,7 @@
     </row>
     <row r="63" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -5038,40 +5083,40 @@
         <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H63">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K63">
-        <v>0.05</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q63">
         <v>255</v>
@@ -5085,7 +5130,7 @@
     </row>
     <row r="64" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -5097,40 +5142,40 @@
         <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K64">
         <v>0.05</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q64">
         <v>255</v>
@@ -5144,7 +5189,7 @@
     </row>
     <row r="65" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -5156,22 +5201,22 @@
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K65">
         <v>0.05</v>
@@ -5180,16 +5225,16 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q65">
         <v>255</v>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCE058F-2790-4856-8361-194EFFC6C184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728512DB-EAD2-4B8E-8209-3B848E1F78B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18045" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FoodDatas!$A$1:$S$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1395,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1520,13 +1523,13 @@
         <v>137</v>
       </c>
       <c r="Q2">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="R2">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="S2">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,13 +1582,13 @@
         <v>138</v>
       </c>
       <c r="Q3">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="R3">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="S3">
-        <v>255</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1756,13 +1759,13 @@
         <v>137</v>
       </c>
       <c r="Q6">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1815,13 +1818,13 @@
         <v>138</v>
       </c>
       <c r="Q7">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="R7">
-        <v>255</v>
+        <v>104</v>
       </c>
       <c r="S7">
-        <v>255</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1933,13 +1936,13 @@
         <v>137</v>
       </c>
       <c r="Q9">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="R9">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="S9">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2110,13 +2113,13 @@
         <v>138</v>
       </c>
       <c r="Q12">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="R12">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="S12">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2169,13 +2172,13 @@
         <v>137</v>
       </c>
       <c r="Q13">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="R13">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="S13">
-        <v>255</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2228,13 +2231,13 @@
         <v>138</v>
       </c>
       <c r="Q14">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R14">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="S14">
-        <v>255</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2346,13 +2349,13 @@
         <v>137</v>
       </c>
       <c r="Q16">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="R16">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="S16">
-        <v>255</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2405,13 +2408,13 @@
         <v>137</v>
       </c>
       <c r="Q17">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="R17">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="S17">
-        <v>255</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2464,13 +2467,13 @@
         <v>138</v>
       </c>
       <c r="Q18">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="R18">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="S18">
-        <v>255</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2641,13 +2644,13 @@
         <v>137</v>
       </c>
       <c r="Q21">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="R21">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="S21">
-        <v>255</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2700,13 +2703,13 @@
         <v>137</v>
       </c>
       <c r="Q22">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="R22">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="S22">
-        <v>255</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3054,13 +3057,13 @@
         <v>137</v>
       </c>
       <c r="Q28">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="R28">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="S28">
-        <v>255</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3113,13 +3116,13 @@
         <v>137</v>
       </c>
       <c r="Q29">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="R29">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="S29">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3172,13 +3175,13 @@
         <v>138</v>
       </c>
       <c r="Q30">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="R30">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="S30">
-        <v>255</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3290,13 +3293,13 @@
         <v>137</v>
       </c>
       <c r="Q32">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="R32">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="S32">
-        <v>255</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3408,13 +3411,13 @@
         <v>137</v>
       </c>
       <c r="Q34">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="R34">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="S34">
-        <v>255</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3467,13 +3470,13 @@
         <v>137</v>
       </c>
       <c r="Q35">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="R35">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="S35">
-        <v>255</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3526,13 +3529,13 @@
         <v>138</v>
       </c>
       <c r="Q36">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="R36">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="S36">
-        <v>255</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3703,13 +3706,13 @@
         <v>137</v>
       </c>
       <c r="Q39">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="R39">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="S39">
-        <v>255</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3821,13 +3824,13 @@
         <v>137</v>
       </c>
       <c r="Q41">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="R41">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="S41">
-        <v>255</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3880,13 +3883,13 @@
         <v>137</v>
       </c>
       <c r="Q42">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="R42">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="S42">
-        <v>255</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3939,13 +3942,13 @@
         <v>138</v>
       </c>
       <c r="Q43">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="R43">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="S43">
-        <v>255</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4175,13 +4178,13 @@
         <v>137</v>
       </c>
       <c r="Q47">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="R47">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="S47">
-        <v>255</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4234,13 +4237,13 @@
         <v>137</v>
       </c>
       <c r="Q48">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="R48">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="S48">
-        <v>255</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4293,13 +4296,13 @@
         <v>138</v>
       </c>
       <c r="Q49">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="R49">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="S49">
-        <v>255</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4411,13 +4414,13 @@
         <v>137</v>
       </c>
       <c r="Q51">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="R51">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="S51">
-        <v>255</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4529,13 +4532,13 @@
         <v>137</v>
       </c>
       <c r="Q53">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="R53">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="S53">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4588,13 +4591,13 @@
         <v>137</v>
       </c>
       <c r="Q54">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="R54">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="S54">
-        <v>255</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4647,13 +4650,13 @@
         <v>138</v>
       </c>
       <c r="Q55">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="R55">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="S55">
-        <v>255</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5001,13 +5004,13 @@
         <v>137</v>
       </c>
       <c r="Q61">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="R61">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="S61">
-        <v>255</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5060,13 +5063,13 @@
         <v>137</v>
       </c>
       <c r="Q62">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="R62">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="S62">
-        <v>255</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -5119,13 +5122,13 @@
         <v>138</v>
       </c>
       <c r="Q63">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="R63">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="S63">
-        <v>255</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728512DB-EAD2-4B8E-8209-3B848E1F78B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBECAEB-72A6-45A0-A92C-B747ACED2F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18045" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="330" yWindow="435" windowWidth="27225" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -784,12 +784,6 @@
     <t>_EffectPrefabPath</t>
   </si>
   <si>
-    <t>Assets/08.Assets/vfx_smoke_dust/Animation/FireEffect.prefab</t>
-  </si>
-  <si>
-    <t>Assets/08.Assets/vfx_liquid/Animation/LaserEffect.prefab</t>
-  </si>
-  <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1030,6 +1024,13 @@
   <si>
     <t>6
 6</t>
+  </si>
+  <si>
+    <t>Assets/05.Animations/EffectAnimation/FireEffect.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/05.Animations/EffectAnimation/LaserEffect.prefab</t>
   </si>
 </sst>
 </file>
@@ -1398,17 +1399,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="65.375" customWidth="1"/>
+    <col min="2" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="21.25" customWidth="1"/>
     <col min="15" max="15" width="15.625" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="16" max="16" width="69.25" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
     <col min="18" max="18" width="14.75" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
@@ -1464,13 +1466,13 @@
         <v>136</v>
       </c>
       <c r="Q1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S1" t="s">
         <v>171</v>
-      </c>
-      <c r="R1" t="s">
-        <v>172</v>
-      </c>
-      <c r="S1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1508,19 +1510,19 @@
         <v>0.1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>211</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>187</v>
@@ -1629,16 +1631,16 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>255</v>
@@ -1688,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>255</v>
@@ -1747,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>199</v>
@@ -1770,7 +1772,7 @@
     </row>
     <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1806,16 +1808,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>217</v>
@@ -1865,16 +1867,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>255</v>
@@ -1924,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>219</v>
@@ -1983,16 +1985,16 @@
         <v>1.5</v>
       </c>
       <c r="M10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>255</v>
@@ -2006,7 +2008,7 @@
     </row>
     <row r="11" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -2042,16 +2044,16 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>255</v>
@@ -2101,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>219</v>
@@ -2157,19 +2159,19 @@
         <v>0.1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>128</v>
@@ -2183,7 +2185,7 @@
     </row>
     <row r="14" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -2219,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>252</v>
@@ -2278,16 +2280,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>255</v>
@@ -2337,16 +2339,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>242</v>
@@ -2393,19 +2395,19 @@
         <v>0.03</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>160</v>
@@ -2455,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>171</v>
@@ -2514,16 +2516,16 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>255</v>
@@ -2573,16 +2575,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>255</v>
@@ -2632,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>229</v>
@@ -2688,19 +2690,19 @@
         <v>0.05</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>159</v>
@@ -2714,7 +2716,7 @@
     </row>
     <row r="23" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -2750,16 +2752,16 @@
         <v>1.5</v>
       </c>
       <c r="M23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>255</v>
@@ -2809,16 +2811,16 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>134</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>255</v>
@@ -2832,7 +2834,7 @@
     </row>
     <row r="25" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -2868,16 +2870,16 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>255</v>
@@ -2891,7 +2893,7 @@
     </row>
     <row r="26" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2927,16 +2929,16 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>255</v>
@@ -2986,16 +2988,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>255</v>
@@ -3045,16 +3047,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>226</v>
@@ -3101,19 +3103,19 @@
         <v>0.05</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>111</v>
@@ -3163,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>241</v>
@@ -3222,16 +3224,16 @@
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>74</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>255</v>
@@ -3245,7 +3247,7 @@
     </row>
     <row r="32" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -3278,19 +3280,19 @@
         <v>0.1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>249</v>
@@ -3340,16 +3342,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>255</v>
@@ -3399,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>199</v>
@@ -3455,19 +3457,19 @@
         <v>0.03</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>250</v>
@@ -3517,16 +3519,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>227</v>
@@ -3576,16 +3578,16 @@
         <v>1.5</v>
       </c>
       <c r="M37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>255</v>
@@ -3599,7 +3601,7 @@
     </row>
     <row r="38" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -3635,16 +3637,16 @@
         <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>255</v>
@@ -3658,7 +3660,7 @@
     </row>
     <row r="39" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -3691,19 +3693,19 @@
         <v>0.05</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>243</v>
@@ -3729,7 +3731,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F40">
         <v>7</v>
@@ -3753,16 +3755,16 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>255</v>
@@ -3812,16 +3814,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>226</v>
@@ -3868,19 +3870,19 @@
         <v>0.03</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>228</v>
@@ -3930,16 +3932,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>95</v>
       </c>
       <c r="P43" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>172</v>
@@ -3989,16 +3991,16 @@
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>96</v>
       </c>
       <c r="P44" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>255</v>
@@ -4012,7 +4014,7 @@
     </row>
     <row r="45" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -4048,16 +4050,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P45" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>255</v>
@@ -4107,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>133</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>255</v>
@@ -4166,16 +4168,16 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>230</v>
@@ -4222,19 +4224,19 @@
         <v>0.1</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>103</v>
       </c>
       <c r="P48" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>111</v>
@@ -4284,16 +4286,16 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="P49" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>185</v>
@@ -4307,7 +4309,7 @@
     </row>
     <row r="50" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -4343,16 +4345,16 @@
         <v>2</v>
       </c>
       <c r="M50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P50" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>255</v>
@@ -4366,7 +4368,7 @@
     </row>
     <row r="51" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -4399,19 +4401,19 @@
         <v>0.1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P51" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q51">
         <v>218</v>
@@ -4461,16 +4463,16 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>255</v>
@@ -4520,16 +4522,16 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P53" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>233</v>
@@ -4576,19 +4578,19 @@
         <v>0.03</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>115</v>
       </c>
       <c r="P54" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>210</v>
@@ -4638,16 +4640,16 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>233</v>
@@ -4697,16 +4699,16 @@
         <v>2.5</v>
       </c>
       <c r="M56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>117</v>
       </c>
       <c r="P56" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>255</v>
@@ -4756,16 +4758,16 @@
         <v>1.5</v>
       </c>
       <c r="M57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>255</v>
@@ -4815,16 +4817,16 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>255</v>
@@ -4838,7 +4840,7 @@
     </row>
     <row r="59" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -4874,16 +4876,16 @@
         <v>2.5</v>
       </c>
       <c r="M59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P59" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>255</v>
@@ -4933,16 +4935,16 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>255</v>
@@ -4992,16 +4994,16 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>209</v>
@@ -5048,19 +5050,19 @@
         <v>0.03</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>239</v>
@@ -5110,16 +5112,16 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>182</v>
@@ -5169,16 +5171,16 @@
         <v>1.5</v>
       </c>
       <c r="M64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>255</v>
@@ -5228,16 +5230,16 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>255</v>

--- a/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
+++ b/ServeWay_Project/Assets/07.Data/FoodDataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb944\Desktop\ServeWay\ServeWay_Project\Assets\07.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBECAEB-72A6-45A0-A92C-B747ACED2F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCEBB63-9BFA-4AB6-A5EF-9430773792C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="435" windowWidth="27225" windowHeight="14685" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D35103B-CB93-414B-994D-D848EB4BEE29}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodDatas" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="192">
   <si>
     <t>_FoodName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,10 +784,6 @@
     <t>_EffectPrefabPath</t>
   </si>
   <si>
-    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Prefabs/TestPrefabs/CharacterBullet/RiceBullet.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1031,6 +1027,22 @@
   </si>
   <si>
     <t>Assets/05.Animations/EffectAnimation/LaserEffect.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet_m.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet_f.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet_c.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefabs/TestPrefabs/CharacterBullet/MeatBullet_s.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1399,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F08313-C97E-49E9-83F1-5828C79C2351}">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P63" sqref="P63"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1420,7 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="12" width="15.625" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="21.25" customWidth="1"/>
+    <col min="14" max="14" width="60.625" customWidth="1"/>
     <col min="15" max="15" width="15.625" customWidth="1"/>
     <col min="16" max="16" width="69.25" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
@@ -1466,13 +1478,13 @@
         <v>136</v>
       </c>
       <c r="Q1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" t="s">
         <v>169</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>170</v>
-      </c>
-      <c r="S1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1510,19 +1522,19 @@
         <v>0.1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>211</v>
@@ -1572,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>187</v>
@@ -1631,16 +1643,16 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>255</v>
@@ -1690,25 +1702,25 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N5" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q5">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="R5">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="S5">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1749,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>199</v>
@@ -1772,7 +1784,7 @@
     </row>
     <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1808,16 +1820,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>217</v>
@@ -1867,25 +1879,25 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N8" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R8">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="S8">
-        <v>255</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1926,16 +1938,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>219</v>
@@ -1985,16 +1997,16 @@
         <v>1.5</v>
       </c>
       <c r="M10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>255</v>
@@ -2008,7 +2020,7 @@
     </row>
     <row r="11" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -2044,16 +2056,16 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>255</v>
@@ -2103,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>219</v>
@@ -2159,19 +2171,19 @@
         <v>0.1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>128</v>
@@ -2185,7 +2197,7 @@
     </row>
     <row r="14" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -2221,16 +2233,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>252</v>
@@ -2280,25 +2292,25 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q15">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="R15">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="S15">
-        <v>255</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2339,16 +2351,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>242</v>
@@ -2395,19 +2407,19 @@
         <v>0.03</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>160</v>
@@ -2457,16 +2469,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>171</v>
@@ -2516,16 +2528,16 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>255</v>
@@ -2575,25 +2587,25 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N20" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q20">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="R20">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="S20">
-        <v>255</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2634,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>229</v>
@@ -2690,19 +2702,19 @@
         <v>0.05</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>159</v>
@@ -2716,7 +2728,7 @@
     </row>
     <row r="23" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -2752,16 +2764,16 @@
         <v>1.5</v>
       </c>
       <c r="M23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>255</v>
@@ -2811,16 +2823,16 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>134</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>255</v>
@@ -2834,7 +2846,7 @@
     </row>
     <row r="25" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -2870,16 +2882,16 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>255</v>
@@ -2893,7 +2905,7 @@
     </row>
     <row r="26" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2929,16 +2941,16 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>255</v>
@@ -2988,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N27" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q27">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="R27">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="S27">
-        <v>255</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3047,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>226</v>
@@ -3103,19 +3115,19 @@
         <v>0.05</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>111</v>
@@ -3165,16 +3177,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>241</v>
@@ -3224,16 +3236,16 @@
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>74</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>255</v>
@@ -3247,7 +3259,7 @@
     </row>
     <row r="32" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -3280,19 +3292,19 @@
         <v>0.1</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>249</v>
@@ -3342,25 +3354,25 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N33" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q33">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="R33">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="S33">
-        <v>255</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3401,16 +3413,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>199</v>
@@ -3457,19 +3469,19 @@
         <v>0.03</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>250</v>
@@ -3519,16 +3531,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>227</v>
@@ -3578,16 +3590,16 @@
         <v>1.5</v>
       </c>
       <c r="M37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>255</v>
@@ -3601,7 +3613,7 @@
     </row>
     <row r="38" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -3637,16 +3649,16 @@
         <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>255</v>
@@ -3660,7 +3672,7 @@
     </row>
     <row r="39" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -3693,19 +3705,19 @@
         <v>0.05</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>243</v>
@@ -3731,7 +3743,7 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F40">
         <v>7</v>
@@ -3755,25 +3767,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N40" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q40">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R40">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="S40">
-        <v>255</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3814,16 +3826,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>226</v>
@@ -3870,19 +3882,19 @@
         <v>0.03</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>228</v>
@@ -3932,16 +3944,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>95</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>172</v>
@@ -3991,16 +4003,16 @@
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>96</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>255</v>
@@ -4014,7 +4026,7 @@
     </row>
     <row r="45" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -4050,25 +4062,25 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N45" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q45">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="R45">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="S45">
-        <v>255</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4109,25 +4121,25 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N46" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>133</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q46">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="R46">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="S46">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4168,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>230</v>
@@ -4224,19 +4236,19 @@
         <v>0.1</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>103</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>111</v>
@@ -4286,16 +4298,16 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>185</v>
@@ -4309,7 +4321,7 @@
     </row>
     <row r="50" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -4345,16 +4357,16 @@
         <v>2</v>
       </c>
       <c r="M50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>255</v>
@@ -4368,7 +4380,7 @@
     </row>
     <row r="51" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -4401,19 +4413,19 @@
         <v>0.1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>218</v>
@@ -4463,25 +4475,25 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N52" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q52">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="R52">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="S52">
-        <v>255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4522,16 +4534,16 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>114</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>233</v>
@@ -4578,19 +4590,19 @@
         <v>0.03</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>115</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>210</v>
@@ -4640,16 +4652,16 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>233</v>
@@ -4699,16 +4711,16 @@
         <v>2.5</v>
       </c>
       <c r="M56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>117</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>255</v>
@@ -4758,16 +4770,16 @@
         <v>1.5</v>
       </c>
       <c r="M57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>255</v>
@@ -4817,30 +4829,30 @@
         <v>0</v>
       </c>
       <c r="M58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N58" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q58">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="R58">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="S58">
-        <v>255</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -4876,16 +4888,16 @@
         <v>2.5</v>
       </c>
       <c r="M59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>255</v>
@@ -4935,25 +4947,25 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N60" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q60">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="R60">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="S60">
-        <v>255</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4994,16 +5006,16 @@
         <v>0</v>
       </c>
       <c r="M61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>209</v>
@@ -5050,19 +5062,19 @@
         <v>0.03</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>239</v>
@@ -5112,16 +5124,16 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>182</v>
@@ -5171,16 +5183,16 @@
         <v>1.5</v>
       </c>
       <c r="M64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>255</v>
@@ -5230,25 +5242,25 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N65" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q65">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="R65">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="S65">
-        <v>255</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
